--- a/fluxo de caixa (10 anos) - gabarito.xlsx
+++ b/fluxo de caixa (10 anos) - gabarito.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f507a8597c10f1c/Documentos/Fluxo de Caixa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f507a8597c10f1c/Documentos/Seleção UFBA/Fluxo de Caixa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="8_{8E9F93F1-E167-4DE9-8EC1-05F18E0EEC46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{25D33DC4-F5EA-40B6-9CE8-5EAB88EC2215}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="8_{8E9F93F1-E167-4DE9-8EC1-05F18E0EEC46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D5C7F159-E9AF-4CBA-B4D6-86DE4D79AF92}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,9 +175,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -626,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -765,6 +766,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -3488,8 +3490,8 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4412,7 +4414,7 @@
         <v>-90.267857142857139</v>
       </c>
       <c r="F31" s="24">
-        <f>IF(E30*E31&lt;0,D30-(D30-D31)*(E30-0)/(E30-E31),0)</f>
+        <f t="shared" ref="F31:F40" si="13">IF(E30*E31&lt;0,D30-(D30-D31)*(E30-0)/(E30-E31),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4432,7 +4434,7 @@
         <v>-54.792729591836739</v>
       </c>
       <c r="F32" s="24">
-        <f>IF(E31*E32&lt;0,D31-(D31-D32)*(E31-0)/(E31-E32),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4452,7 +4454,7 @@
         <v>-23.118508564139955</v>
       </c>
       <c r="F33" s="24">
-        <f>IF(E32*E33&lt;0,D32-(D32-D33)*(E32-0)/(E32-E33),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4472,7 +4474,7 @@
         <v>5.1620459248750281</v>
       </c>
       <c r="F34" s="24">
-        <f>IF(E33*E34&lt;0,D33-(D33-D34)*(E33-0)/(E33-E34),0)</f>
+        <f t="shared" si="13"/>
         <v>3.8174701303370795</v>
       </c>
     </row>
@@ -4485,7 +4487,7 @@
         <v>30.41254100435269</v>
       </c>
       <c r="F35" s="24">
-        <f>IF(E34*E35&lt;0,D34-(D34-D35)*(E34-0)/(E34-E35),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4498,11 +4500,12 @@
         <v>52.957625896743458</v>
       </c>
       <c r="F36" s="24">
-        <f>IF(E35*E36&lt;0,D35-(D35-D36)*(E35-0)/(E35-E36),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="52"/>
       <c r="D37" s="26">
         <v>7</v>
       </c>
@@ -4511,7 +4514,7 @@
         <v>73.087165979235209</v>
       </c>
       <c r="F37" s="24">
-        <f>IF(E36*E37&lt;0,D36-(D36-D37)*(E36-0)/(E36-E37),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4524,7 +4527,7 @@
         <v>91.059969624317134</v>
       </c>
       <c r="F38" s="24">
-        <f>IF(E37*E38&lt;0,D37-(D37-D38)*(E37-0)/(E37-E38),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4539,7 +4542,7 @@
         <v>107.10711573599741</v>
       </c>
       <c r="F39" s="24">
-        <f>IF(E38*E39&lt;0,D38-(D38-D39)*(E38-0)/(E38-E39),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4554,7 +4557,7 @@
         <v>124.65465713019034</v>
       </c>
       <c r="F40" s="24">
-        <f>IF(E39*E40&lt;0,D39-(D39-D40)*(E39-0)/(E39-E40),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
